--- a/biology/Zoologie/Courvite_isabelle/Courvite_isabelle.xlsx
+++ b/biology/Zoologie/Courvite_isabelle/Courvite_isabelle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cursorius cursor
 Le Courvite isabelle (Cursorius cursor) est une espèce d'oiseaux limicoles de la famille des Glareolidae.
@@ -512,10 +524,12 @@
           <t>Morphologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le courvite isabelle mesure, de la tête à la queue, de 19 à 21 cm[1].</t>
+Le courvite isabelle mesure, de la tête à la queue, de 19 à 21 cm.</t>
         </is>
       </c>
     </row>
@@ -543,10 +557,12 @@
           <t>Comportement</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Cet oiseau vit dans les régions arides ou semi-arides et préfère courir plutôt que de s'envoler
-Reproduction</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet oiseau vit dans les régions arides ou semi-arides et préfère courir plutôt que de s'envoler
+</t>
         </is>
       </c>
     </row>
@@ -574,7 +590,9 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Son aire s'étend du Pakistan à l'Europe et au nord de l'Afrique jusqu'aux îles Canaries.
 Il hiverne notamment au Sahel et dans la vallée du Nil.
@@ -606,7 +624,9 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce Cursorius cursor a été décrite par le médecin, naturaliste  britannique John Latham en 1787, sous le nom initial de Charadrius cursor.
 </t>
@@ -637,11 +657,47 @@
           <t>Synonyme</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Charadrius cursor Latham, 1787 protonyme
-Taxinomie
-D'après Alan P. Peterson, cette espèce est constituée des trois sous-espèces suivantes :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Charadrius cursor Latham, 1787 protonyme</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Courvite_isabelle</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Courvite_isabelle</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Synonyme</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>D'après Alan P. Peterson, cette espèce est constituée des trois sous-espèces suivantes :
 Cursorius cursor bogolubovi Zarudny 1885 ;
 Cursorius cursor cursor (Latham) 1787 ;
 Cursorius cursor exsul Hartert 1920.</t>
